--- a/Casos de prueba/TC-8.xlsx
+++ b/Casos de prueba/TC-8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AB3400-5A5D-49A0-9024-3D44E80FB06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD8E71A-2ABD-4B42-9DD0-07C4D57D9598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B50E5318-A296-4414-B6B3-6FDE1E533571}"/>
+    <workbookView xWindow="2280" yWindow="4155" windowWidth="7500" windowHeight="7680" xr2:uid="{B50E5318-A296-4414-B6B3-6FDE1E533571}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>an existed account</t>
+  </si>
+  <si>
+    <t>Not As Expected</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -731,12 +737,69 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,60 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1120,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797AF8F6-A74E-48F5-8A86-E5A5BF353C0E}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,10 +1145,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1149,19 +1158,19 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1284,28 +1293,28 @@
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="22" t="s">
         <v>18</v>
       </c>
@@ -1317,16 +1326,16 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="47"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
@@ -1340,64 +1349,64 @@
         <v>23</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="46" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="46" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="46" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="47"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
         <v>1</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="40" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="G27" s="46" t="s">
+      <c r="E27" s="58"/>
+      <c r="G27" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>2</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="41"/>
+      <c r="E28" s="58"/>
       <c r="G28" s="31" t="s">
         <v>36</v>
       </c>
@@ -1423,26 +1432,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>3</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="40" t="s">
+      <c r="C29" s="58"/>
+      <c r="D29" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="41"/>
+      <c r="E29" s="58"/>
       <c r="G29" s="32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>40</v>
@@ -1453,33 +1462,33 @@
       <c r="L29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="32" t="s">
-        <v>39</v>
+      <c r="M29" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>4</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="40" t="s">
+      <c r="C30" s="60"/>
+      <c r="D30" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="G30" s="32" t="s">
-        <v>39</v>
+      <c r="E30" s="58"/>
+      <c r="G30" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>40</v>
@@ -1490,27 +1499,27 @@
       <c r="L30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="32" t="s">
-        <v>39</v>
+      <c r="M30" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="G31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>39</v>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="G31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="J31" s="35" t="s">
         <v>41</v>
@@ -1521,19 +1530,19 @@
       <c r="L31" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" s="35" t="s">
-        <v>40</v>
+      <c r="M31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
@@ -1565,8 +1574,8 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
     </row>
@@ -1640,12 +1649,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -1656,17 +1670,12 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
